--- a/projects/tRNAseq_third-gen/data/UMI_trimmed/sample_stats.xlsx
+++ b/projects/tRNAseq_third-gen/data/UMI_trimmed/sample_stats.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="113">
   <si>
     <t>sample_name_unique</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>percent_CCA</t>
+  </si>
+  <si>
+    <t>N_after_trim</t>
   </si>
   <si>
     <t>N_UMI_observed</t>
@@ -707,13 +710,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA37"/>
+  <dimension ref="A1:AB37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:28">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -792,565 +795,586 @@
       <c r="AA1" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:28">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R2">
-        <v>966</v>
+        <v>942</v>
       </c>
       <c r="S2">
         <v>38</v>
       </c>
       <c r="T2">
-        <v>925</v>
+        <v>901</v>
       </c>
       <c r="U2">
-        <v>963</v>
+        <v>939</v>
       </c>
       <c r="V2">
-        <v>99.68944099378882</v>
+        <v>99.68152866242038</v>
       </c>
       <c r="W2">
-        <v>96.0539979231568</v>
+        <v>95.95314164004259</v>
       </c>
       <c r="X2">
-        <v>885</v>
+        <v>929</v>
       </c>
       <c r="Y2">
-        <v>950.1389225553721</v>
+        <v>865</v>
       </c>
       <c r="Z2">
-        <v>98.44720496894411</v>
+        <v>928.1783102791524</v>
       </c>
       <c r="AA2">
-        <v>93.14427385206126</v>
+        <v>98.61995753715499</v>
+      </c>
+      <c r="AB2">
+        <v>93.19330029806974</v>
       </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:28">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R3">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="S3">
         <v>14</v>
       </c>
       <c r="T3">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="U3">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="V3">
-        <v>98.52941176470588</v>
+        <v>98.36552748885586</v>
       </c>
       <c r="W3">
-        <v>97.91044776119404</v>
+        <v>97.88519637462235</v>
       </c>
       <c r="X3">
-        <v>630</v>
+        <v>663</v>
       </c>
       <c r="Y3">
-        <v>670.5714389406494</v>
+        <v>621</v>
       </c>
       <c r="Z3">
-        <v>98.6764705882353</v>
+        <v>662.5816024716478</v>
       </c>
       <c r="AA3">
-        <v>93.94972159793399</v>
+        <v>98.51411589895989</v>
+      </c>
+      <c r="AB3">
+        <v>93.72430470201184</v>
       </c>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:28">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="P4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="R4">
-        <v>723</v>
+        <v>709</v>
       </c>
       <c r="S4">
         <v>35</v>
       </c>
       <c r="T4">
-        <v>679</v>
+        <v>666</v>
       </c>
       <c r="U4">
-        <v>714</v>
+        <v>701</v>
       </c>
       <c r="V4">
-        <v>98.75518672199171</v>
+        <v>98.87165021156559</v>
       </c>
       <c r="W4">
-        <v>95.09803921568627</v>
+        <v>95.00713266761768</v>
       </c>
       <c r="X4">
-        <v>645</v>
+        <v>692</v>
       </c>
       <c r="Y4">
-        <v>705.5255400704336</v>
+        <v>631</v>
       </c>
       <c r="Z4">
-        <v>97.64868603042876</v>
+        <v>691.5441796306986</v>
       </c>
       <c r="AA4">
-        <v>91.42121204224708</v>
+        <v>97.60225669957687</v>
+      </c>
+      <c r="AB4">
+        <v>91.24507422460981</v>
       </c>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:28">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R5">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="S5">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="T5">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="U5">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="V5">
-        <v>99.1869918699187</v>
+        <v>99.18433931484503</v>
       </c>
       <c r="W5">
-        <v>89.67213114754098</v>
+        <v>89.47368421052632</v>
       </c>
       <c r="X5">
-        <v>558</v>
+        <v>598</v>
       </c>
       <c r="Y5">
-        <v>599.6573797267047</v>
+        <v>556</v>
       </c>
       <c r="Z5">
-        <v>97.5609756097561</v>
+        <v>597.6596615226008</v>
       </c>
       <c r="AA5">
-        <v>93.05313648508918</v>
+        <v>97.55301794453507</v>
+      </c>
+      <c r="AB5">
+        <v>93.02953433121645</v>
       </c>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:28">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L6">
         <v>2</v>
       </c>
       <c r="M6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="P6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R6">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="S6">
         <v>198</v>
       </c>
       <c r="T6">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="U6">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="V6">
-        <v>98.80319148936169</v>
+        <v>98.79679144385027</v>
       </c>
       <c r="W6">
-        <v>73.35127860026918</v>
+        <v>73.20703653585927</v>
       </c>
       <c r="X6">
-        <v>709</v>
+        <v>739</v>
       </c>
       <c r="Y6">
-        <v>742.4744812364224</v>
+        <v>705</v>
       </c>
       <c r="Z6">
-        <v>98.80319148936169</v>
+        <v>738.4801268206211</v>
       </c>
       <c r="AA6">
-        <v>95.49149740733469</v>
+        <v>98.79679144385027</v>
+      </c>
+      <c r="AB6">
+        <v>95.46634694629319</v>
       </c>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:28">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D7">
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L7">
         <v>2</v>
       </c>
       <c r="M7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="R7">
-        <v>739</v>
+        <v>730</v>
       </c>
       <c r="S7">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="T7">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="U7">
-        <v>728</v>
+        <v>720</v>
       </c>
       <c r="V7">
-        <v>98.51150202976996</v>
+        <v>98.63013698630137</v>
       </c>
       <c r="W7">
-        <v>76.37362637362637</v>
+        <v>76.52777777777777</v>
       </c>
       <c r="X7">
-        <v>667</v>
+        <v>720</v>
       </c>
       <c r="Y7">
-        <v>728.4941074540257</v>
+        <v>659</v>
       </c>
       <c r="Z7">
-        <v>98.6468200270636</v>
+        <v>719.5065271721687</v>
       </c>
       <c r="AA7">
-        <v>91.55873646405487</v>
+        <v>98.63013698630137</v>
+      </c>
+      <c r="AB7">
+        <v>91.59055201208893</v>
       </c>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:28">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D8">
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L8">
         <v>2</v>
       </c>
       <c r="M8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R8">
         <v>199</v>
       </c>
       <c r="S8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="U8">
         <v>199</v>
@@ -1359,985 +1383,1021 @@
         <v>100</v>
       </c>
       <c r="W8">
-        <v>81.4070351758794</v>
+        <v>80.90452261306532</v>
       </c>
       <c r="X8">
+        <v>195</v>
+      </c>
+      <c r="Y8">
         <v>175</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>194.9639269271283</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>97.98994974874373</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>89.76019449249694</v>
       </c>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:28">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D9">
         <v>4</v>
       </c>
       <c r="E9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L9">
         <v>2</v>
       </c>
       <c r="M9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R9">
-        <v>771</v>
+        <v>763</v>
       </c>
       <c r="S9">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="T9">
-        <v>592</v>
+        <v>582</v>
       </c>
       <c r="U9">
-        <v>769</v>
+        <v>758</v>
       </c>
       <c r="V9">
-        <v>99.74059662775616</v>
+        <v>99.34469200524246</v>
       </c>
       <c r="W9">
-        <v>76.98309492847855</v>
+        <v>76.78100263852242</v>
       </c>
       <c r="X9">
-        <v>720</v>
+        <v>754</v>
       </c>
       <c r="Y9">
-        <v>761.4472485492006</v>
+        <v>714</v>
       </c>
       <c r="Z9">
-        <v>98.83268482490273</v>
+        <v>753.4587987468694</v>
       </c>
       <c r="AA9">
-        <v>94.55678004902234</v>
+        <v>98.82044560943643</v>
+      </c>
+      <c r="AB9">
+        <v>94.76297857129067</v>
       </c>
     </row>
-    <row r="10" spans="1:27">
+    <row r="10" spans="1:28">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L10">
         <v>3</v>
       </c>
       <c r="M10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="R10">
-        <v>905</v>
+        <v>890</v>
       </c>
       <c r="S10">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="T10">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="U10">
-        <v>897</v>
+        <v>883</v>
       </c>
       <c r="V10">
-        <v>99.11602209944751</v>
+        <v>99.21348314606742</v>
       </c>
       <c r="W10">
-        <v>55.51839464882943</v>
+        <v>55.60588901472253</v>
       </c>
       <c r="X10">
-        <v>816</v>
+        <v>876</v>
       </c>
       <c r="Y10">
-        <v>891.2424750600476</v>
+        <v>801</v>
       </c>
       <c r="Z10">
-        <v>98.5635359116022</v>
+        <v>875.2694146605209</v>
       </c>
       <c r="AA10">
-        <v>91.55757527658473</v>
+        <v>98.42696629213484</v>
+      </c>
+      <c r="AB10">
+        <v>91.51467954705961</v>
       </c>
     </row>
-    <row r="11" spans="1:27">
+    <row r="11" spans="1:28">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D11">
         <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L11">
         <v>3</v>
       </c>
       <c r="M11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O11" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R11">
-        <v>1914</v>
+        <v>1876</v>
       </c>
       <c r="S11">
-        <v>1190</v>
+        <v>1165</v>
       </c>
       <c r="T11">
-        <v>702</v>
+        <v>692</v>
       </c>
       <c r="U11">
-        <v>1892</v>
+        <v>1857</v>
       </c>
       <c r="V11">
-        <v>98.85057471264368</v>
+        <v>98.98720682302772</v>
       </c>
       <c r="W11">
-        <v>37.10359408033826</v>
+        <v>37.26440495422725</v>
       </c>
       <c r="X11">
-        <v>1743</v>
+        <v>1850</v>
       </c>
       <c r="Y11">
-        <v>1884.606456847861</v>
+        <v>1705</v>
       </c>
       <c r="Z11">
-        <v>98.6415882967607</v>
+        <v>1846.741643405985</v>
       </c>
       <c r="AA11">
-        <v>92.48615240952171</v>
+        <v>98.61407249466951</v>
+      </c>
+      <c r="AB11">
+        <v>92.32477136625522</v>
       </c>
     </row>
-    <row r="12" spans="1:27">
+    <row r="12" spans="1:28">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D12">
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L12">
         <v>3</v>
       </c>
       <c r="M12" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O12" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R12">
-        <v>1949</v>
+        <v>1922</v>
       </c>
       <c r="S12">
-        <v>1292</v>
+        <v>1269</v>
       </c>
       <c r="T12">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="U12">
-        <v>1929</v>
+        <v>1903</v>
       </c>
       <c r="V12">
-        <v>98.97383273473577</v>
+        <v>99.01144640998959</v>
       </c>
       <c r="W12">
-        <v>33.02229134266459</v>
+        <v>33.31581713084603</v>
       </c>
       <c r="X12">
-        <v>1784</v>
+        <v>1887</v>
       </c>
       <c r="Y12">
-        <v>1912.505089630256</v>
+        <v>1755</v>
       </c>
       <c r="Z12">
-        <v>98.30682401231401</v>
+        <v>1883.610049548908</v>
       </c>
       <c r="AA12">
-        <v>93.28079750861734</v>
+        <v>98.1789802289282</v>
+      </c>
+      <c r="AB12">
+        <v>93.17215102033948</v>
       </c>
     </row>
-    <row r="13" spans="1:27">
+    <row r="13" spans="1:28">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D13">
         <v>4</v>
       </c>
       <c r="E13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G13" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L13">
         <v>3</v>
       </c>
       <c r="M13" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N13" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O13" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P13" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="R13">
-        <v>1818</v>
+        <v>1790</v>
       </c>
       <c r="S13">
-        <v>1189</v>
+        <v>1172</v>
       </c>
       <c r="T13">
-        <v>612</v>
+        <v>601</v>
       </c>
       <c r="U13">
-        <v>1801</v>
+        <v>1773</v>
       </c>
       <c r="V13">
-        <v>99.06490649064907</v>
+        <v>99.05027932960894</v>
       </c>
       <c r="W13">
-        <v>33.9811215991116</v>
+        <v>33.89734912577552</v>
       </c>
       <c r="X13">
-        <v>1630</v>
+        <v>1754</v>
       </c>
       <c r="Y13">
-        <v>1776.983486734098</v>
+        <v>1606</v>
       </c>
       <c r="Z13">
-        <v>97.90979097909791</v>
+        <v>1751.070942014514</v>
       </c>
       <c r="AA13">
-        <v>91.7284832508918</v>
+        <v>97.98882681564245</v>
+      </c>
+      <c r="AB13">
+        <v>91.71530184564553</v>
       </c>
     </row>
-    <row r="14" spans="1:27">
+    <row r="14" spans="1:28">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F14" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L14">
         <v>4</v>
       </c>
       <c r="M14" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O14" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q14" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R14">
-        <v>783</v>
+        <v>770</v>
       </c>
       <c r="S14">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="T14">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="U14">
-        <v>778</v>
+        <v>763</v>
       </c>
       <c r="V14">
-        <v>99.36143039591315</v>
+        <v>99.09090909090909</v>
       </c>
       <c r="W14">
-        <v>41.13110539845758</v>
+        <v>41.02228047182175</v>
       </c>
       <c r="X14">
-        <v>727</v>
+        <v>762</v>
       </c>
       <c r="Y14">
-        <v>774.4282195033156</v>
+        <v>716</v>
       </c>
       <c r="Z14">
-        <v>98.97828863346105</v>
+        <v>761.4472485492006</v>
       </c>
       <c r="AA14">
-        <v>93.87571135595574</v>
+        <v>98.96103896103897</v>
+      </c>
+      <c r="AB14">
+        <v>94.03146460430554</v>
       </c>
     </row>
-    <row r="15" spans="1:27">
+    <row r="15" spans="1:28">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D15">
         <v>2</v>
       </c>
       <c r="E15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F15" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G15" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H15" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I15" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J15" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L15">
         <v>4</v>
       </c>
       <c r="M15" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N15" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q15" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="R15">
-        <v>578</v>
+        <v>567</v>
       </c>
       <c r="S15">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="T15">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="U15">
-        <v>571</v>
+        <v>560</v>
       </c>
       <c r="V15">
-        <v>98.78892733564014</v>
+        <v>98.76543209876543</v>
       </c>
       <c r="W15">
-        <v>47.98598949211909</v>
+        <v>47.5</v>
       </c>
       <c r="X15">
-        <v>533</v>
+        <v>564</v>
       </c>
       <c r="Y15">
-        <v>574.6853544288897</v>
+        <v>522</v>
       </c>
       <c r="Z15">
-        <v>99.48096885813149</v>
+        <v>563.6972860593814</v>
       </c>
       <c r="AA15">
-        <v>92.7464039047392</v>
+        <v>99.47089947089947</v>
+      </c>
+      <c r="AB15">
+        <v>92.60289394847486</v>
       </c>
     </row>
-    <row r="16" spans="1:27">
+    <row r="16" spans="1:28">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D16">
         <v>3</v>
       </c>
       <c r="E16" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G16" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I16" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J16" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L16">
         <v>4</v>
       </c>
       <c r="M16" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N16" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O16" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q16" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R16">
-        <v>779</v>
+        <v>764</v>
       </c>
       <c r="S16">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="T16">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="U16">
-        <v>770</v>
+        <v>755</v>
       </c>
       <c r="V16">
-        <v>98.84467265725289</v>
+        <v>98.82198952879581</v>
       </c>
       <c r="W16">
-        <v>39.74025974025975</v>
+        <v>40</v>
       </c>
       <c r="X16">
-        <v>705</v>
+        <v>754</v>
       </c>
       <c r="Y16">
-        <v>768.4370421355707</v>
+        <v>693</v>
       </c>
       <c r="Z16">
-        <v>98.71630295250321</v>
+        <v>753.4587987468694</v>
       </c>
       <c r="AA16">
-        <v>91.74466629572252</v>
+        <v>98.69109947643979</v>
+      </c>
+      <c r="AB16">
+        <v>91.97583214272331</v>
       </c>
     </row>
-    <row r="17" spans="1:27">
+    <row r="17" spans="1:28">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D17">
         <v>4</v>
       </c>
       <c r="E17" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F17" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G17" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I17" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L17">
         <v>4</v>
       </c>
       <c r="M17" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N17" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O17" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q17" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R17">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="S17">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="T17">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="U17">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="V17">
-        <v>99.3234100135318</v>
+        <v>99.18256130790191</v>
       </c>
       <c r="W17">
-        <v>24.52316076294278</v>
+        <v>24.58791208791209</v>
       </c>
       <c r="X17">
-        <v>685</v>
+        <v>718</v>
       </c>
       <c r="Y17">
-        <v>721.5037805678439</v>
+        <v>678</v>
       </c>
       <c r="Z17">
-        <v>97.69959404600812</v>
+        <v>717.5092661575181</v>
       </c>
       <c r="AA17">
-        <v>94.94059746449084</v>
+        <v>97.82016348773843</v>
+      </c>
+      <c r="AB17">
+        <v>94.49355318167494</v>
       </c>
     </row>
-    <row r="18" spans="1:27">
+    <row r="18" spans="1:28">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F18" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G18" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H18" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I18" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J18" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L18">
         <v>5</v>
       </c>
       <c r="M18" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N18" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O18" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="P18" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q18" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="R18">
-        <v>759</v>
+        <v>741</v>
       </c>
       <c r="S18">
-        <v>547</v>
+        <v>534</v>
       </c>
       <c r="T18">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="U18">
-        <v>754</v>
+        <v>735</v>
       </c>
       <c r="V18">
-        <v>99.34123847167325</v>
+        <v>99.19028340080972</v>
       </c>
       <c r="W18">
-        <v>27.45358090185677</v>
+        <v>27.3469387755102</v>
       </c>
       <c r="X18">
-        <v>686</v>
+        <v>727</v>
       </c>
       <c r="Y18">
-        <v>745.4702270494308</v>
+        <v>668</v>
       </c>
       <c r="Z18">
-        <v>98.28722002635047</v>
+        <v>726.4968807243858</v>
       </c>
       <c r="AA18">
-        <v>92.02245443324895</v>
+        <v>98.11066126855602</v>
+      </c>
+      <c r="AB18">
+        <v>91.94808921050577</v>
       </c>
     </row>
-    <row r="19" spans="1:27">
+    <row r="19" spans="1:28">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D19">
         <v>2</v>
       </c>
       <c r="E19" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F19" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G19" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H19" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I19" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J19" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L19">
         <v>5</v>
       </c>
       <c r="M19" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N19" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O19" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P19" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q19" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R19">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="S19">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="T19">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="U19">
-        <v>650</v>
+        <v>642</v>
       </c>
       <c r="V19">
-        <v>98.63429438543247</v>
+        <v>98.46625766871165</v>
       </c>
       <c r="W19">
-        <v>29.23076923076923</v>
+        <v>29.4392523364486</v>
       </c>
       <c r="X19">
-        <v>600</v>
+        <v>641</v>
       </c>
       <c r="Y19">
-        <v>647.6003304882906</v>
+        <v>594</v>
       </c>
       <c r="Z19">
-        <v>98.33080424886191</v>
+        <v>640.6089235453983</v>
       </c>
       <c r="AA19">
-        <v>92.64973653543382</v>
+        <v>98.31288343558282</v>
+      </c>
+      <c r="AB19">
+        <v>92.7242781309625</v>
       </c>
     </row>
-    <row r="20" spans="1:27">
+    <row r="20" spans="1:28">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C20" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D20">
         <v>3</v>
       </c>
       <c r="E20" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F20" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H20" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I20" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J20" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K20" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L20">
         <v>5</v>
       </c>
       <c r="M20" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N20" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O20" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P20" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R20">
         <v>202</v>
@@ -2358,235 +2418,244 @@
         <v>58.91089108910891</v>
       </c>
       <c r="X20">
+        <v>198</v>
+      </c>
+      <c r="Y20">
         <v>181</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>197.9628056146903</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>98.01980198019803</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>91.43131682640109</v>
       </c>
     </row>
-    <row r="21" spans="1:27">
+    <row r="21" spans="1:28">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C21" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D21">
         <v>4</v>
       </c>
       <c r="E21" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F21" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H21" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I21" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J21" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K21" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L21">
         <v>5</v>
       </c>
       <c r="M21" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N21" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O21" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q21" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="R21">
-        <v>715</v>
+        <v>698</v>
       </c>
       <c r="S21">
-        <v>502</v>
+        <v>486</v>
       </c>
       <c r="T21">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="U21">
-        <v>712</v>
+        <v>695</v>
       </c>
       <c r="V21">
-        <v>99.58041958041957</v>
+        <v>99.5702005730659</v>
       </c>
       <c r="W21">
-        <v>29.49438202247191</v>
+        <v>30.07194244604317</v>
       </c>
       <c r="X21">
-        <v>654</v>
+        <v>686</v>
       </c>
       <c r="Y21">
-        <v>701.5309037552215</v>
+        <v>638</v>
       </c>
       <c r="Z21">
-        <v>98.18181818181819</v>
+        <v>685.5520537241246</v>
       </c>
       <c r="AA21">
-        <v>93.22468853463282</v>
+        <v>98.28080229226362</v>
+      </c>
+      <c r="AB21">
+        <v>93.06368444732861</v>
       </c>
     </row>
-    <row r="22" spans="1:27">
+    <row r="22" spans="1:28">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C22" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F22" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G22" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H22" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I22" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J22" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K22" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L22">
         <v>6</v>
       </c>
       <c r="M22" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N22" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O22" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q22" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R22">
-        <v>922</v>
+        <v>913</v>
       </c>
       <c r="S22">
-        <v>779</v>
+        <v>771</v>
       </c>
       <c r="T22">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="U22">
-        <v>919</v>
+        <v>910</v>
       </c>
       <c r="V22">
-        <v>99.67462039045553</v>
+        <v>99.67141292442497</v>
       </c>
       <c r="W22">
-        <v>15.23394994559304</v>
+        <v>15.27472527472528</v>
       </c>
       <c r="X22">
-        <v>834</v>
+        <v>898</v>
       </c>
       <c r="Y22">
-        <v>906.2167764788028</v>
+        <v>825</v>
       </c>
       <c r="Z22">
-        <v>98.37310195227765</v>
+        <v>897.2322470378713</v>
       </c>
       <c r="AA22">
-        <v>92.03096010212828</v>
+        <v>98.35706462212487</v>
+      </c>
+      <c r="AB22">
+        <v>91.94943702967217</v>
       </c>
     </row>
-    <row r="23" spans="1:27">
+    <row r="23" spans="1:28">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D23">
         <v>2</v>
       </c>
       <c r="E23" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F23" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G23" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H23" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I23" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J23" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L23">
         <v>6</v>
       </c>
       <c r="M23" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N23" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O23" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q23" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R23">
         <v>4</v>
@@ -2610,66 +2679,69 @@
         <v>4</v>
       </c>
       <c r="Y23">
+        <v>4</v>
+      </c>
+      <c r="Z23">
         <v>3.999988555908203</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>100</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>100.0002861031135</v>
       </c>
     </row>
-    <row r="24" spans="1:27">
+    <row r="24" spans="1:28">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C24" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D24">
         <v>3</v>
       </c>
       <c r="E24" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F24" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G24" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H24" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I24" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J24" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K24" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L24">
         <v>6</v>
       </c>
       <c r="M24" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N24" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O24" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q24" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="R24">
         <v>4</v>
@@ -2693,66 +2765,69 @@
         <v>4</v>
       </c>
       <c r="Y24">
+        <v>4</v>
+      </c>
+      <c r="Z24">
         <v>3.999988555908203</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>100</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>100.0002861031135</v>
       </c>
     </row>
-    <row r="25" spans="1:27">
+    <row r="25" spans="1:28">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C25" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D25">
         <v>4</v>
       </c>
       <c r="E25" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F25" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G25" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H25" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I25" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J25" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K25" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L25">
         <v>6</v>
       </c>
       <c r="M25" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N25" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O25" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q25" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R25">
         <v>0</v>
@@ -2772,1001 +2847,1040 @@
       <c r="Y25">
         <v>0</v>
       </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:27">
+    <row r="26" spans="1:28">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C26" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F26" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H26" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I26" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J26" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K26" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L26">
         <v>7</v>
       </c>
       <c r="M26" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N26" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O26" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P26" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q26" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="R26">
-        <v>772</v>
+        <v>755</v>
       </c>
       <c r="S26">
-        <v>733</v>
+        <v>716</v>
       </c>
       <c r="T26">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U26">
-        <v>767</v>
+        <v>749</v>
       </c>
       <c r="V26">
-        <v>99.35233160621762</v>
+        <v>99.20529801324504</v>
       </c>
       <c r="W26">
-        <v>4.432855280312908</v>
+        <v>4.405874499332444</v>
       </c>
       <c r="X26">
-        <v>712</v>
+        <v>746</v>
       </c>
       <c r="Y26">
-        <v>762.4457962037995</v>
+        <v>697</v>
       </c>
       <c r="Z26">
-        <v>98.83419689119171</v>
+        <v>745.4702270494308</v>
       </c>
       <c r="AA26">
-        <v>93.38368754146616</v>
+        <v>98.80794701986756</v>
+      </c>
+      <c r="AB26">
+        <v>93.4980331486509</v>
       </c>
     </row>
-    <row r="27" spans="1:27">
+    <row r="27" spans="1:28">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C27" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D27">
         <v>2</v>
       </c>
       <c r="E27" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F27" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G27" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H27" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I27" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J27" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K27" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L27">
         <v>7</v>
       </c>
       <c r="M27" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N27" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O27" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P27" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q27" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R27">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="S27">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="T27">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="U27">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="V27">
         <v>100</v>
       </c>
       <c r="W27">
-        <v>7.722007722007722</v>
+        <v>7.662082514734774</v>
       </c>
       <c r="X27">
-        <v>491</v>
+        <v>504</v>
       </c>
       <c r="Y27">
-        <v>512.7495930788573</v>
+        <v>484</v>
       </c>
       <c r="Z27">
-        <v>99.03474903474904</v>
+        <v>503.7583092616405</v>
       </c>
       <c r="AA27">
-        <v>95.75824274218149</v>
+        <v>99.01768172888016</v>
+      </c>
+      <c r="AB27">
+        <v>96.07781968091001</v>
       </c>
     </row>
-    <row r="28" spans="1:27">
+    <row r="28" spans="1:28">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C28" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D28">
         <v>3</v>
       </c>
       <c r="E28" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F28" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G28" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I28" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J28" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K28" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L28">
         <v>7</v>
       </c>
       <c r="M28" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N28" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O28" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="P28" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q28" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R28">
-        <v>746</v>
+        <v>737</v>
       </c>
       <c r="S28">
-        <v>686</v>
+        <v>674</v>
       </c>
       <c r="T28">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U28">
-        <v>736</v>
+        <v>725</v>
       </c>
       <c r="V28">
-        <v>98.65951742627345</v>
+        <v>98.37177747625509</v>
       </c>
       <c r="W28">
-        <v>6.793478260869565</v>
+        <v>7.03448275862069</v>
       </c>
       <c r="X28">
-        <v>675</v>
+        <v>726</v>
       </c>
       <c r="Y28">
-        <v>733.4871409458574</v>
+        <v>669</v>
       </c>
       <c r="Z28">
-        <v>98.39142091152814</v>
+        <v>725.4982645025011</v>
       </c>
       <c r="AA28">
-        <v>92.02615319602792</v>
+        <v>98.50746268656717</v>
+      </c>
+      <c r="AB28">
+        <v>92.21248798696384</v>
       </c>
     </row>
-    <row r="29" spans="1:27">
+    <row r="29" spans="1:28">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C29" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D29">
         <v>4</v>
       </c>
       <c r="E29" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F29" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G29" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H29" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I29" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J29" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K29" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L29">
         <v>7</v>
       </c>
       <c r="M29" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N29" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O29" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P29" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q29" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="R29">
-        <v>888</v>
+        <v>872</v>
       </c>
       <c r="S29">
-        <v>854</v>
+        <v>838</v>
       </c>
       <c r="T29">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U29">
-        <v>883</v>
+        <v>866</v>
       </c>
       <c r="V29">
-        <v>99.43693693693693</v>
+        <v>99.31192660550458</v>
       </c>
       <c r="W29">
-        <v>3.284258210645526</v>
+        <v>3.233256351039261</v>
       </c>
       <c r="X29">
-        <v>804</v>
+        <v>857</v>
       </c>
       <c r="Y29">
-        <v>872.274411567254</v>
+        <v>788</v>
       </c>
       <c r="Z29">
-        <v>98.31081081081081</v>
+        <v>856.3007722989423</v>
       </c>
       <c r="AA29">
-        <v>92.17282879540369</v>
+        <v>98.27981651376146</v>
+      </c>
+      <c r="AB29">
+        <v>92.0237404299458</v>
       </c>
     </row>
-    <row r="30" spans="1:27">
+    <row r="30" spans="1:28">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C30" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F30" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G30" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H30" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I30" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J30" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K30" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L30">
         <v>8</v>
       </c>
       <c r="M30" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N30" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O30" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="P30" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q30" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R30">
-        <v>774</v>
+        <v>763</v>
       </c>
       <c r="S30">
-        <v>763</v>
+        <v>754</v>
       </c>
       <c r="T30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U30">
-        <v>766</v>
+        <v>755</v>
       </c>
       <c r="V30">
-        <v>98.96640826873386</v>
+        <v>98.95150720838795</v>
       </c>
       <c r="W30">
-        <v>0.3916449086161879</v>
+        <v>0.1324503311258278</v>
       </c>
       <c r="X30">
-        <v>707</v>
+        <v>754</v>
       </c>
       <c r="Y30">
-        <v>762.4457962037995</v>
+        <v>698</v>
       </c>
       <c r="Z30">
-        <v>98.57881136950904</v>
+        <v>753.4587987468694</v>
       </c>
       <c r="AA30">
-        <v>92.72790321884349</v>
+        <v>98.82044560943643</v>
+      </c>
+      <c r="AB30">
+        <v>92.63943843523934</v>
       </c>
     </row>
-    <row r="31" spans="1:27">
+    <row r="31" spans="1:28">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C31" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D31">
         <v>2</v>
       </c>
       <c r="E31" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F31" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G31" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H31" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I31" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J31" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K31" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L31">
         <v>8</v>
       </c>
       <c r="M31" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N31" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O31" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P31" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q31" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R31">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="S31">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="T31">
         <v>6</v>
       </c>
       <c r="U31">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="V31">
-        <v>99.17081260364843</v>
+        <v>99.32659932659934</v>
       </c>
       <c r="W31">
-        <v>1.003344481605351</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="X31">
-        <v>560</v>
+        <v>583</v>
       </c>
       <c r="Y31">
-        <v>591.6664611857268</v>
+        <v>553</v>
       </c>
       <c r="Z31">
-        <v>98.17578772802653</v>
+        <v>582.6765320792329</v>
       </c>
       <c r="AA31">
-        <v>94.64792019438354</v>
+        <v>98.14814814814815</v>
+      </c>
+      <c r="AB31">
+        <v>94.90685990504292</v>
       </c>
     </row>
-    <row r="32" spans="1:27">
+    <row r="32" spans="1:28">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C32" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D32">
         <v>3</v>
       </c>
       <c r="E32" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F32" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G32" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H32" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I32" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K32" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L32">
         <v>8</v>
       </c>
       <c r="M32" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N32" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O32" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P32" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q32" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="R32">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="S32">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="T32">
         <v>3</v>
       </c>
       <c r="U32">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="V32">
         <v>100</v>
       </c>
       <c r="W32">
-        <v>2.18978102189781</v>
+        <v>2.205882352941177</v>
       </c>
       <c r="X32">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="Y32">
-        <v>135.9824920311803</v>
+        <v>129</v>
       </c>
       <c r="Z32">
-        <v>99.27007299270073</v>
+        <v>134.9827494903584</v>
       </c>
       <c r="AA32">
-        <v>95.60054243614793</v>
+        <v>99.26470588235294</v>
+      </c>
+      <c r="AB32">
+        <v>95.56776735327522</v>
       </c>
     </row>
-    <row r="33" spans="1:27">
+    <row r="33" spans="1:28">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C33" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D33">
         <v>4</v>
       </c>
       <c r="E33" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F33" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G33" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H33" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I33" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J33" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K33" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L33">
         <v>8</v>
       </c>
       <c r="M33" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N33" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O33" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P33" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q33" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R33">
-        <v>721</v>
+        <v>707</v>
       </c>
       <c r="S33">
-        <v>713</v>
+        <v>699</v>
       </c>
       <c r="T33">
         <v>2</v>
       </c>
       <c r="U33">
-        <v>715</v>
+        <v>701</v>
       </c>
       <c r="V33">
-        <v>99.16782246879335</v>
+        <v>99.15134370579915</v>
       </c>
       <c r="W33">
-        <v>0.2797202797202797</v>
+        <v>0.2853067047075606</v>
       </c>
       <c r="X33">
-        <v>650</v>
+        <v>693</v>
       </c>
       <c r="Y33">
-        <v>705.5255400704336</v>
+        <v>640</v>
       </c>
       <c r="Z33">
-        <v>97.91955617198336</v>
+        <v>692.5428606148926</v>
       </c>
       <c r="AA33">
-        <v>92.12990360846605</v>
+        <v>98.01980198019803</v>
+      </c>
+      <c r="AB33">
+        <v>92.41305288047573</v>
       </c>
     </row>
-    <row r="34" spans="1:27">
+    <row r="34" spans="1:28">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C34" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D34">
         <v>1</v>
       </c>
       <c r="E34" t="s">
+        <v>72</v>
+      </c>
+      <c r="F34" t="s">
+        <v>74</v>
+      </c>
+      <c r="G34" t="s">
+        <v>84</v>
+      </c>
+      <c r="H34" t="s">
+        <v>88</v>
+      </c>
+      <c r="I34" t="s">
+        <v>89</v>
+      </c>
+      <c r="J34" t="s">
+        <v>90</v>
+      </c>
+      <c r="K34" t="s">
         <v>71</v>
-      </c>
-      <c r="F34" t="s">
-        <v>73</v>
-      </c>
-      <c r="G34" t="s">
-        <v>83</v>
-      </c>
-      <c r="H34" t="s">
-        <v>87</v>
-      </c>
-      <c r="I34" t="s">
-        <v>88</v>
-      </c>
-      <c r="J34" t="s">
-        <v>89</v>
-      </c>
-      <c r="K34" t="s">
-        <v>70</v>
       </c>
       <c r="L34">
         <v>9</v>
       </c>
       <c r="M34" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N34" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O34" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P34" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q34" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R34">
-        <v>906</v>
+        <v>897</v>
       </c>
       <c r="S34">
-        <v>892</v>
+        <v>883</v>
       </c>
       <c r="T34">
         <v>9</v>
       </c>
       <c r="U34">
-        <v>901</v>
+        <v>892</v>
       </c>
       <c r="V34">
-        <v>99.44812362030905</v>
+        <v>99.44258639910814</v>
       </c>
       <c r="W34">
-        <v>0.9988901220865706</v>
+        <v>1.008968609865471</v>
       </c>
       <c r="X34">
-        <v>841</v>
+        <v>882</v>
       </c>
       <c r="Y34">
-        <v>890.2441730660503</v>
+        <v>831</v>
       </c>
       <c r="Z34">
-        <v>98.34437086092716</v>
+        <v>881.2593694346142</v>
       </c>
       <c r="AA34">
-        <v>94.46846443302734</v>
+        <v>98.32775919732441</v>
+      </c>
+      <c r="AB34">
+        <v>94.29686977775239</v>
       </c>
     </row>
-    <row r="35" spans="1:27">
+    <row r="35" spans="1:28">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C35" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D35">
         <v>2</v>
       </c>
       <c r="E35" t="s">
+        <v>72</v>
+      </c>
+      <c r="F35" t="s">
+        <v>75</v>
+      </c>
+      <c r="G35" t="s">
+        <v>85</v>
+      </c>
+      <c r="H35" t="s">
+        <v>88</v>
+      </c>
+      <c r="I35" t="s">
+        <v>89</v>
+      </c>
+      <c r="J35" t="s">
+        <v>90</v>
+      </c>
+      <c r="K35" t="s">
         <v>71</v>
-      </c>
-      <c r="F35" t="s">
-        <v>74</v>
-      </c>
-      <c r="G35" t="s">
-        <v>84</v>
-      </c>
-      <c r="H35" t="s">
-        <v>87</v>
-      </c>
-      <c r="I35" t="s">
-        <v>88</v>
-      </c>
-      <c r="J35" t="s">
-        <v>89</v>
-      </c>
-      <c r="K35" t="s">
-        <v>70</v>
       </c>
       <c r="L35">
         <v>9</v>
       </c>
       <c r="M35" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N35" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O35" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P35" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q35" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="R35">
-        <v>884</v>
+        <v>859</v>
       </c>
       <c r="S35">
-        <v>868</v>
+        <v>843</v>
       </c>
       <c r="T35">
         <v>9</v>
       </c>
       <c r="U35">
-        <v>877</v>
+        <v>852</v>
       </c>
       <c r="V35">
-        <v>99.2081447963801</v>
+        <v>99.18509895227008</v>
       </c>
       <c r="W35">
-        <v>1.026225769669327</v>
+        <v>1.056338028169014</v>
       </c>
       <c r="X35">
-        <v>803</v>
+        <v>847</v>
       </c>
       <c r="Y35">
-        <v>869.2793913363712</v>
+        <v>781</v>
       </c>
       <c r="Z35">
-        <v>98.41628959276018</v>
+        <v>846.3170002063853</v>
       </c>
       <c r="AA35">
-        <v>92.37536377867215</v>
+        <v>98.60302677532013</v>
+      </c>
+      <c r="AB35">
+        <v>92.2822062902604</v>
       </c>
     </row>
-    <row r="36" spans="1:27">
+    <row r="36" spans="1:28">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C36" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D36">
         <v>3</v>
       </c>
       <c r="E36" t="s">
+        <v>72</v>
+      </c>
+      <c r="F36" t="s">
+        <v>73</v>
+      </c>
+      <c r="G36" t="s">
+        <v>86</v>
+      </c>
+      <c r="H36" t="s">
+        <v>88</v>
+      </c>
+      <c r="I36" t="s">
+        <v>89</v>
+      </c>
+      <c r="J36" t="s">
+        <v>90</v>
+      </c>
+      <c r="K36" t="s">
         <v>71</v>
-      </c>
-      <c r="F36" t="s">
-        <v>72</v>
-      </c>
-      <c r="G36" t="s">
-        <v>85</v>
-      </c>
-      <c r="H36" t="s">
-        <v>87</v>
-      </c>
-      <c r="I36" t="s">
-        <v>88</v>
-      </c>
-      <c r="J36" t="s">
-        <v>89</v>
-      </c>
-      <c r="K36" t="s">
-        <v>70</v>
       </c>
       <c r="L36">
         <v>9</v>
       </c>
       <c r="M36" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N36" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O36" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P36" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q36" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R36">
-        <v>950</v>
+        <v>926</v>
       </c>
       <c r="S36">
-        <v>944</v>
+        <v>920</v>
       </c>
       <c r="T36">
         <v>3</v>
       </c>
       <c r="U36">
-        <v>947</v>
+        <v>923</v>
       </c>
       <c r="V36">
-        <v>99.68421052631578</v>
+        <v>99.67602591792657</v>
       </c>
       <c r="W36">
-        <v>0.3167898627243929</v>
+        <v>0.3250270855904659</v>
       </c>
       <c r="X36">
-        <v>867</v>
+        <v>911</v>
       </c>
       <c r="Y36">
-        <v>932.1712174168206</v>
+        <v>844</v>
       </c>
       <c r="Z36">
-        <v>98.21052631578947</v>
+        <v>910.209851169202</v>
       </c>
       <c r="AA36">
-        <v>93.00866448146519</v>
+        <v>98.38012958963283</v>
+      </c>
+      <c r="AB36">
+        <v>92.72586963499101</v>
       </c>
     </row>
-    <row r="37" spans="1:27">
+    <row r="37" spans="1:28">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D37">
         <v>4</v>
       </c>
       <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
+        <v>74</v>
+      </c>
+      <c r="G37" t="s">
+        <v>87</v>
+      </c>
+      <c r="H37" t="s">
+        <v>88</v>
+      </c>
+      <c r="I37" t="s">
+        <v>89</v>
+      </c>
+      <c r="J37" t="s">
+        <v>90</v>
+      </c>
+      <c r="K37" t="s">
         <v>71</v>
-      </c>
-      <c r="F37" t="s">
-        <v>73</v>
-      </c>
-      <c r="G37" t="s">
-        <v>86</v>
-      </c>
-      <c r="H37" t="s">
-        <v>87</v>
-      </c>
-      <c r="I37" t="s">
-        <v>88</v>
-      </c>
-      <c r="J37" t="s">
-        <v>89</v>
-      </c>
-      <c r="K37" t="s">
-        <v>70</v>
       </c>
       <c r="L37">
         <v>9</v>
       </c>
       <c r="M37" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N37" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O37" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P37" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q37" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R37">
-        <v>988</v>
+        <v>977</v>
       </c>
       <c r="S37">
-        <v>978</v>
+        <v>966</v>
       </c>
       <c r="T37">
         <v>4</v>
       </c>
       <c r="U37">
-        <v>982</v>
+        <v>970</v>
       </c>
       <c r="V37">
-        <v>99.39271255060729</v>
+        <v>99.2835209825998</v>
       </c>
       <c r="W37">
-        <v>0.4073319755600814</v>
+        <v>0.4123711340206186</v>
       </c>
       <c r="X37">
-        <v>896</v>
+        <v>962</v>
       </c>
       <c r="Y37">
-        <v>971.1004655731958</v>
+        <v>887</v>
       </c>
       <c r="Z37">
-        <v>98.38056680161942</v>
+        <v>961.1188831339823</v>
       </c>
       <c r="AA37">
-        <v>92.26645766986967</v>
+        <v>98.46468781985671</v>
+      </c>
+      <c r="AB37">
+        <v>92.28827105214101</v>
       </c>
     </row>
   </sheetData>

--- a/projects/tRNAseq_third-gen/data/UMI_trimmed/sample_stats.xlsx
+++ b/projects/tRNAseq_third-gen/data/UMI_trimmed/sample_stats.xlsx
@@ -852,37 +852,37 @@
         <v>110</v>
       </c>
       <c r="R2">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="S2">
         <v>38</v>
       </c>
       <c r="T2">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="U2">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="V2">
-        <v>99.68152866242038</v>
+        <v>99.68220338983051</v>
       </c>
       <c r="W2">
-        <v>95.95314164004259</v>
+        <v>95.96174282678001</v>
       </c>
       <c r="X2">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="Y2">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="Z2">
-        <v>928.1783102791524</v>
+        <v>930.1747676559607</v>
       </c>
       <c r="AA2">
-        <v>98.61995753715499</v>
+        <v>98.62288135593221</v>
       </c>
       <c r="AB2">
-        <v>93.19330029806974</v>
+        <v>93.2082905435974</v>
       </c>
     </row>
     <row r="3" spans="1:28">
@@ -938,37 +938,37 @@
         <v>111</v>
       </c>
       <c r="R3">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="S3">
         <v>14</v>
       </c>
       <c r="T3">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="U3">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="V3">
-        <v>98.36552748885586</v>
+        <v>98.22485207100591</v>
       </c>
       <c r="W3">
-        <v>97.88519637462235</v>
+        <v>97.89156626506023</v>
       </c>
       <c r="X3">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="Y3">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="Z3">
-        <v>662.5816024716478</v>
+        <v>666.5765359455836</v>
       </c>
       <c r="AA3">
-        <v>98.51411589895989</v>
+        <v>98.66863905325444</v>
       </c>
       <c r="AB3">
-        <v>93.72430470201184</v>
+        <v>93.76267634644468</v>
       </c>
     </row>
     <row r="4" spans="1:28">
@@ -1045,7 +1045,7 @@
         <v>692</v>
       </c>
       <c r="Y4">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="Z4">
         <v>691.5441796306986</v>
@@ -1054,7 +1054,7 @@
         <v>97.60225669957687</v>
       </c>
       <c r="AB4">
-        <v>91.24507422460981</v>
+        <v>91.53428206684313</v>
       </c>
     </row>
     <row r="5" spans="1:28">
@@ -1110,37 +1110,37 @@
         <v>110</v>
       </c>
       <c r="R5">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="S5">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T5">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="U5">
         <v>608</v>
       </c>
       <c r="V5">
-        <v>99.18433931484503</v>
+        <v>99.50900163666121</v>
       </c>
       <c r="W5">
-        <v>89.47368421052632</v>
+        <v>89.63815789473685</v>
       </c>
       <c r="X5">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="Y5">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="Z5">
-        <v>597.6596615226008</v>
+        <v>595.6619356977171</v>
       </c>
       <c r="AA5">
-        <v>97.55301794453507</v>
+        <v>97.54500818330605</v>
       </c>
       <c r="AB5">
-        <v>93.02953433121645</v>
+        <v>93.00577505444977</v>
       </c>
     </row>
     <row r="6" spans="1:28">
@@ -1199,10 +1199,10 @@
         <v>748</v>
       </c>
       <c r="S6">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="T6">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="U6">
         <v>739</v>
@@ -1211,13 +1211,13 @@
         <v>98.79679144385027</v>
       </c>
       <c r="W6">
-        <v>73.20703653585927</v>
+        <v>73.34235453315291</v>
       </c>
       <c r="X6">
         <v>739</v>
       </c>
       <c r="Y6">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="Z6">
         <v>738.4801268206211</v>
@@ -1226,7 +1226,7 @@
         <v>98.79679144385027</v>
       </c>
       <c r="AB6">
-        <v>95.46634694629319</v>
+        <v>95.60176020437304</v>
       </c>
     </row>
     <row r="7" spans="1:28">
@@ -1282,37 +1282,37 @@
         <v>112</v>
       </c>
       <c r="R7">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="S7">
         <v>169</v>
       </c>
       <c r="T7">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="U7">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="V7">
-        <v>98.63013698630137</v>
+        <v>98.62825788751715</v>
       </c>
       <c r="W7">
-        <v>76.52777777777777</v>
+        <v>76.49513212795549</v>
       </c>
       <c r="X7">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="Y7">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="Z7">
-        <v>719.5065271721687</v>
+        <v>718.507897617179</v>
       </c>
       <c r="AA7">
-        <v>98.63013698630137</v>
+        <v>98.62825788751715</v>
       </c>
       <c r="AB7">
-        <v>91.59055201208893</v>
+        <v>91.57867327306435</v>
       </c>
     </row>
     <row r="8" spans="1:28">
@@ -1368,37 +1368,37 @@
         <v>110</v>
       </c>
       <c r="R8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="S8">
         <v>38</v>
       </c>
       <c r="T8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="U8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="V8">
         <v>100</v>
       </c>
       <c r="W8">
-        <v>80.90452261306532</v>
+        <v>81</v>
       </c>
       <c r="X8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Y8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Z8">
-        <v>194.9639269271283</v>
+        <v>195.9635550629464</v>
       </c>
       <c r="AA8">
-        <v>97.98994974874373</v>
+        <v>98</v>
       </c>
       <c r="AB8">
-        <v>89.76019449249694</v>
+        <v>89.81261844502984</v>
       </c>
     </row>
     <row r="9" spans="1:28">
@@ -1454,37 +1454,37 @@
         <v>111</v>
       </c>
       <c r="R9">
-        <v>763</v>
+        <v>766</v>
       </c>
       <c r="S9">
         <v>176</v>
       </c>
       <c r="T9">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="U9">
+        <v>761</v>
+      </c>
+      <c r="V9">
+        <v>99.34725848563968</v>
+      </c>
+      <c r="W9">
+        <v>76.87253613666229</v>
+      </c>
+      <c r="X9">
         <v>758</v>
       </c>
-      <c r="V9">
-        <v>99.34469200524246</v>
-      </c>
-      <c r="W9">
-        <v>76.78100263852242</v>
-      </c>
-      <c r="X9">
-        <v>754</v>
-      </c>
       <c r="Y9">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="Z9">
-        <v>753.4587987468694</v>
+        <v>757.4530388847925</v>
       </c>
       <c r="AA9">
-        <v>98.82044560943643</v>
+        <v>98.9556135770235</v>
       </c>
       <c r="AB9">
-        <v>94.76297857129067</v>
+        <v>94.65933373977191</v>
       </c>
     </row>
     <row r="10" spans="1:28">
@@ -1540,37 +1540,37 @@
         <v>112</v>
       </c>
       <c r="R10">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="S10">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="T10">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="U10">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="V10">
-        <v>99.21348314606742</v>
+        <v>99.2152466367713</v>
       </c>
       <c r="W10">
-        <v>55.60588901472253</v>
+        <v>55.59322033898305</v>
       </c>
       <c r="X10">
-        <v>876</v>
+        <v>879</v>
       </c>
       <c r="Y10">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="Z10">
-        <v>875.2694146605209</v>
+        <v>878.26440061623</v>
       </c>
       <c r="AA10">
-        <v>98.42696629213484</v>
+        <v>98.54260089686099</v>
       </c>
       <c r="AB10">
-        <v>91.51467954705961</v>
+        <v>91.43032547335164</v>
       </c>
     </row>
     <row r="11" spans="1:28">
@@ -1626,37 +1626,37 @@
         <v>110</v>
       </c>
       <c r="R11">
-        <v>1876</v>
+        <v>1874</v>
       </c>
       <c r="S11">
-        <v>1165</v>
+        <v>1161</v>
       </c>
       <c r="T11">
         <v>692</v>
       </c>
       <c r="U11">
-        <v>1857</v>
+        <v>1853</v>
       </c>
       <c r="V11">
-        <v>98.98720682302772</v>
+        <v>98.87940234791888</v>
       </c>
       <c r="W11">
-        <v>37.26440495422725</v>
+        <v>37.34484619535888</v>
       </c>
       <c r="X11">
-        <v>1850</v>
+        <v>1848</v>
       </c>
       <c r="Y11">
-        <v>1705</v>
+        <v>1703</v>
       </c>
       <c r="Z11">
-        <v>1846.741643405985</v>
+        <v>1844.748682464415</v>
       </c>
       <c r="AA11">
-        <v>98.61407249466951</v>
+        <v>98.61259338313766</v>
       </c>
       <c r="AB11">
-        <v>92.32477136625522</v>
+        <v>92.31609791556802</v>
       </c>
     </row>
     <row r="12" spans="1:28">
@@ -1715,10 +1715,10 @@
         <v>1922</v>
       </c>
       <c r="S12">
-        <v>1269</v>
+        <v>1271</v>
       </c>
       <c r="T12">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="U12">
         <v>1903</v>
@@ -1727,13 +1727,13 @@
         <v>99.01144640998959</v>
       </c>
       <c r="W12">
-        <v>33.31581713084603</v>
+        <v>33.21071991592223</v>
       </c>
       <c r="X12">
         <v>1887</v>
       </c>
       <c r="Y12">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="Z12">
         <v>1883.610049548908</v>
@@ -1742,7 +1742,7 @@
         <v>98.1789802289282</v>
       </c>
       <c r="AB12">
-        <v>93.17215102033948</v>
+        <v>93.22524056508041</v>
       </c>
     </row>
     <row r="13" spans="1:28">
@@ -1798,37 +1798,37 @@
         <v>112</v>
       </c>
       <c r="R13">
-        <v>1790</v>
+        <v>1792</v>
       </c>
       <c r="S13">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="T13">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="U13">
-        <v>1773</v>
+        <v>1775</v>
       </c>
       <c r="V13">
-        <v>99.05027932960894</v>
+        <v>99.05133928571429</v>
       </c>
       <c r="W13">
-        <v>33.89734912577552</v>
+        <v>34.02816901408451</v>
       </c>
       <c r="X13">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="Y13">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="Z13">
-        <v>1751.070942014514</v>
+        <v>1752.067602111783</v>
       </c>
       <c r="AA13">
-        <v>97.98882681564245</v>
+        <v>97.93526785714286</v>
       </c>
       <c r="AB13">
-        <v>91.71530184564553</v>
+        <v>91.60605435917419</v>
       </c>
     </row>
     <row r="14" spans="1:28">
@@ -1884,37 +1884,37 @@
         <v>111</v>
       </c>
       <c r="R14">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="S14">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="T14">
         <v>313</v>
       </c>
       <c r="U14">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="V14">
-        <v>99.09090909090909</v>
+        <v>99.34980494148245</v>
       </c>
       <c r="W14">
-        <v>41.02228047182175</v>
+        <v>40.96858638743456</v>
       </c>
       <c r="X14">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="Y14">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="Z14">
-        <v>761.4472485492006</v>
+        <v>760.4486989899306</v>
       </c>
       <c r="AA14">
-        <v>98.96103896103897</v>
+        <v>98.95968790637191</v>
       </c>
       <c r="AB14">
-        <v>94.03146460430554</v>
+        <v>94.02343655130214</v>
       </c>
     </row>
     <row r="15" spans="1:28">
@@ -2056,37 +2056,37 @@
         <v>110</v>
       </c>
       <c r="R16">
-        <v>764</v>
+        <v>767</v>
       </c>
       <c r="S16">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="T16">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="U16">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="V16">
-        <v>98.82198952879581</v>
+        <v>98.82659713168188</v>
       </c>
       <c r="W16">
-        <v>40</v>
+        <v>40.10554089709763</v>
       </c>
       <c r="X16">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="Y16">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="Z16">
-        <v>753.4587987468694</v>
+        <v>756.4544817071874</v>
       </c>
       <c r="AA16">
-        <v>98.69109947643979</v>
+        <v>98.69621903520208</v>
       </c>
       <c r="AB16">
-        <v>91.97583214272331</v>
+        <v>91.87598418764138</v>
       </c>
     </row>
     <row r="17" spans="1:28">
@@ -2142,37 +2142,37 @@
         <v>111</v>
       </c>
       <c r="R17">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="S17">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="T17">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="U17">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="V17">
-        <v>99.18256130790191</v>
+        <v>99.04371584699454</v>
       </c>
       <c r="W17">
-        <v>24.58791208791209</v>
+        <v>24.55172413793104</v>
       </c>
       <c r="X17">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="Y17">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="Z17">
-        <v>717.5092661575181</v>
+        <v>715.5119975239504</v>
       </c>
       <c r="AA17">
-        <v>97.82016348773843</v>
+        <v>97.81420765027322</v>
       </c>
       <c r="AB17">
-        <v>94.49355318167494</v>
+        <v>94.89708102026225</v>
       </c>
     </row>
     <row r="18" spans="1:28">
@@ -2228,37 +2228,37 @@
         <v>112</v>
       </c>
       <c r="R18">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="S18">
         <v>534</v>
       </c>
       <c r="T18">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="U18">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="V18">
-        <v>99.19028340080972</v>
+        <v>99.45945945945947</v>
       </c>
       <c r="W18">
-        <v>27.3469387755102</v>
+        <v>27.44565217391304</v>
       </c>
       <c r="X18">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="Y18">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="Z18">
-        <v>726.4968807243858</v>
+        <v>725.4982645025011</v>
       </c>
       <c r="AA18">
-        <v>98.11066126855602</v>
+        <v>98.1081081081081</v>
       </c>
       <c r="AB18">
-        <v>91.94808921050577</v>
+        <v>91.93681537713735</v>
       </c>
     </row>
     <row r="19" spans="1:28">
@@ -2317,19 +2317,19 @@
         <v>652</v>
       </c>
       <c r="S19">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="T19">
         <v>189</v>
       </c>
       <c r="U19">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="V19">
-        <v>98.46625766871165</v>
+        <v>98.61963190184049</v>
       </c>
       <c r="W19">
-        <v>29.4392523364486</v>
+        <v>29.39346811819596</v>
       </c>
       <c r="X19">
         <v>641</v>
@@ -2400,37 +2400,37 @@
         <v>111</v>
       </c>
       <c r="R20">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="S20">
         <v>83</v>
       </c>
       <c r="T20">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="U20">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="V20">
         <v>100</v>
       </c>
       <c r="W20">
-        <v>58.91089108910891</v>
+        <v>58.70646766169154</v>
       </c>
       <c r="X20">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="Y20">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Z20">
-        <v>197.9628056146903</v>
+        <v>196.9631812921143</v>
       </c>
       <c r="AA20">
-        <v>98.01980198019803</v>
+        <v>98.00995024875621</v>
       </c>
       <c r="AB20">
-        <v>91.43131682640109</v>
+        <v>91.38763845058109</v>
       </c>
     </row>
     <row r="21" spans="1:28">
@@ -2486,37 +2486,37 @@
         <v>112</v>
       </c>
       <c r="R21">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="S21">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="T21">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="U21">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="V21">
-        <v>99.5702005730659</v>
+        <v>99.56958393113344</v>
       </c>
       <c r="W21">
-        <v>30.07194244604317</v>
+        <v>29.82708933717579</v>
       </c>
       <c r="X21">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="Y21">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="Z21">
-        <v>685.5520537241246</v>
+        <v>684.5533594060107</v>
       </c>
       <c r="AA21">
-        <v>98.28080229226362</v>
+        <v>98.27833572453372</v>
       </c>
       <c r="AB21">
-        <v>93.06368444732861</v>
+        <v>93.05337432756551</v>
       </c>
     </row>
     <row r="22" spans="1:28">
@@ -2572,37 +2572,37 @@
         <v>110</v>
       </c>
       <c r="R22">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="S22">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="T22">
         <v>139</v>
       </c>
       <c r="U22">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="V22">
-        <v>99.67141292442497</v>
+        <v>99.67105263157895</v>
       </c>
       <c r="W22">
-        <v>15.27472527472528</v>
+        <v>15.29152915291529</v>
       </c>
       <c r="X22">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="Y22">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="Z22">
-        <v>897.2322470378713</v>
+        <v>896.2339564684662</v>
       </c>
       <c r="AA22">
-        <v>98.35706462212487</v>
+        <v>98.35526315789474</v>
       </c>
       <c r="AB22">
-        <v>91.94943702967217</v>
+        <v>91.82870098372099</v>
       </c>
     </row>
     <row r="23" spans="1:28">
@@ -2904,37 +2904,37 @@
         <v>112</v>
       </c>
       <c r="R26">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="S26">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="T26">
         <v>33</v>
       </c>
       <c r="U26">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="V26">
-        <v>99.20529801324504</v>
+        <v>99.20634920634922</v>
       </c>
       <c r="W26">
-        <v>4.405874499332444</v>
+        <v>4.399999999999999</v>
       </c>
       <c r="X26">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="Y26">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="Z26">
-        <v>745.4702270494308</v>
+        <v>746.4688051778357</v>
       </c>
       <c r="AA26">
-        <v>98.80794701986756</v>
+        <v>98.80952380952381</v>
       </c>
       <c r="AB26">
-        <v>93.4980331486509</v>
+        <v>93.50692154291849</v>
       </c>
     </row>
     <row r="27" spans="1:28">
@@ -3011,7 +3011,7 @@
         <v>504</v>
       </c>
       <c r="Y27">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="Z27">
         <v>503.7583092616405</v>
@@ -3020,7 +3020,7 @@
         <v>99.01768172888016</v>
       </c>
       <c r="AB27">
-        <v>96.07781968091001</v>
+        <v>95.8793117890073</v>
       </c>
     </row>
     <row r="28" spans="1:28">
@@ -3076,37 +3076,37 @@
         <v>111</v>
       </c>
       <c r="R28">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="S28">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="T28">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="U28">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="V28">
-        <v>98.37177747625509</v>
+        <v>98.64130434782609</v>
       </c>
       <c r="W28">
-        <v>7.03448275862069</v>
+        <v>6.887052341597796</v>
       </c>
       <c r="X28">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="Y28">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="Z28">
-        <v>725.4982645025011</v>
+        <v>723.501026344602</v>
       </c>
       <c r="AA28">
-        <v>98.50746268656717</v>
+        <v>98.36956521739131</v>
       </c>
       <c r="AB28">
-        <v>92.21248798696384</v>
+        <v>92.05239187632964</v>
       </c>
     </row>
     <row r="29" spans="1:28">
@@ -3162,22 +3162,22 @@
         <v>112</v>
       </c>
       <c r="R29">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="S29">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="T29">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="U29">
         <v>866</v>
       </c>
       <c r="V29">
-        <v>99.31192660550458</v>
+        <v>99.19816723940436</v>
       </c>
       <c r="W29">
-        <v>3.233256351039261</v>
+        <v>3.348729792147806</v>
       </c>
       <c r="X29">
         <v>857</v>
@@ -3189,7 +3189,7 @@
         <v>856.3007722989423</v>
       </c>
       <c r="AA29">
-        <v>98.27981651376146</v>
+        <v>98.1672394043528</v>
       </c>
       <c r="AB29">
         <v>92.0237404299458</v>
@@ -3248,7 +3248,7 @@
         <v>110</v>
       </c>
       <c r="R30">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="S30">
         <v>754</v>
@@ -3260,25 +3260,25 @@
         <v>755</v>
       </c>
       <c r="V30">
-        <v>98.95150720838795</v>
+        <v>99.08136482939632</v>
       </c>
       <c r="W30">
         <v>0.1324503311258278</v>
       </c>
       <c r="X30">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="Y30">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="Z30">
-        <v>753.4587987468694</v>
+        <v>752.460233950871</v>
       </c>
       <c r="AA30">
-        <v>98.82044560943643</v>
+        <v>98.81889763779527</v>
       </c>
       <c r="AB30">
-        <v>92.63943843523934</v>
+        <v>92.62947974543833</v>
       </c>
     </row>
     <row r="31" spans="1:28">
@@ -3334,37 +3334,37 @@
         <v>111</v>
       </c>
       <c r="R31">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="S31">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="T31">
         <v>6</v>
       </c>
       <c r="U31">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="V31">
-        <v>99.32659932659934</v>
+        <v>99.32546374367622</v>
       </c>
       <c r="W31">
-        <v>1.016949152542373</v>
+        <v>1.01867572156197</v>
       </c>
       <c r="X31">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="Y31">
         <v>553</v>
       </c>
       <c r="Z31">
-        <v>582.6765320792329</v>
+        <v>581.6776415412896</v>
       </c>
       <c r="AA31">
-        <v>98.14814814814815</v>
+        <v>98.1450252951096</v>
       </c>
       <c r="AB31">
-        <v>94.90685990504292</v>
+        <v>95.06983946205985</v>
       </c>
     </row>
     <row r="32" spans="1:28">
@@ -3441,7 +3441,7 @@
         <v>135</v>
       </c>
       <c r="Y32">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Z32">
         <v>134.9827494903584</v>
@@ -3450,7 +3450,7 @@
         <v>99.26470588235294</v>
       </c>
       <c r="AB32">
-        <v>95.56776735327522</v>
+        <v>94.82693194743587</v>
       </c>
     </row>
     <row r="33" spans="1:28">
@@ -3506,37 +3506,37 @@
         <v>110</v>
       </c>
       <c r="R33">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="S33">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="T33">
         <v>2</v>
       </c>
       <c r="U33">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="V33">
-        <v>99.15134370579915</v>
+        <v>99.15014164305948</v>
       </c>
       <c r="W33">
-        <v>0.2853067047075606</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="X33">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="Y33">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="Z33">
-        <v>692.5428606148926</v>
+        <v>691.5441796306986</v>
       </c>
       <c r="AA33">
-        <v>98.01980198019803</v>
+        <v>98.01699716713881</v>
       </c>
       <c r="AB33">
-        <v>92.41305288047573</v>
+        <v>92.40190559354306</v>
       </c>
     </row>
     <row r="34" spans="1:28">
@@ -3592,37 +3592,37 @@
         <v>111</v>
       </c>
       <c r="R34">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="S34">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="T34">
         <v>9</v>
       </c>
       <c r="U34">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="V34">
-        <v>99.44258639910814</v>
+        <v>99.44320712694878</v>
       </c>
       <c r="W34">
-        <v>1.008968609865471</v>
+        <v>1.007838745800672</v>
       </c>
       <c r="X34">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="Y34">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="Z34">
-        <v>881.2593694346142</v>
+        <v>882.2576885657618</v>
       </c>
       <c r="AA34">
-        <v>98.32775919732441</v>
+        <v>98.32962138084632</v>
       </c>
       <c r="AB34">
-        <v>94.29686977775239</v>
+        <v>94.30351367666027</v>
       </c>
     </row>
     <row r="35" spans="1:28">
@@ -3678,37 +3678,37 @@
         <v>112</v>
       </c>
       <c r="R35">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="S35">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="T35">
         <v>9</v>
       </c>
       <c r="U35">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="V35">
-        <v>99.18509895227008</v>
+        <v>99.1869918699187</v>
       </c>
       <c r="W35">
-        <v>1.056338028169014</v>
+        <v>1.053864168618267</v>
       </c>
       <c r="X35">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="Y35">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="Z35">
-        <v>846.3170002063853</v>
+        <v>848.3137698589708</v>
       </c>
       <c r="AA35">
-        <v>98.60302677532013</v>
+        <v>98.60627177700349</v>
       </c>
       <c r="AB35">
-        <v>92.2822062902604</v>
+        <v>92.30075330855128</v>
       </c>
     </row>
     <row r="36" spans="1:28">
@@ -3764,22 +3764,22 @@
         <v>110</v>
       </c>
       <c r="R36">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="S36">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="T36">
         <v>3</v>
       </c>
       <c r="U36">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="V36">
-        <v>99.67602591792657</v>
+        <v>99.67637540453075</v>
       </c>
       <c r="W36">
-        <v>0.3250270855904659</v>
+        <v>0.3246753246753247</v>
       </c>
       <c r="X36">
         <v>911</v>
@@ -3791,7 +3791,7 @@
         <v>910.209851169202</v>
       </c>
       <c r="AA36">
-        <v>98.38012958963283</v>
+        <v>98.27400215749729</v>
       </c>
       <c r="AB36">
         <v>92.72586963499101</v>
@@ -3850,37 +3850,37 @@
         <v>111</v>
       </c>
       <c r="R37">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="S37">
-        <v>966</v>
+        <v>969</v>
       </c>
       <c r="T37">
         <v>4</v>
       </c>
       <c r="U37">
-        <v>970</v>
+        <v>973</v>
       </c>
       <c r="V37">
-        <v>99.2835209825998</v>
+        <v>99.38712972420838</v>
       </c>
       <c r="W37">
-        <v>0.4123711340206186</v>
+        <v>0.4110996916752312</v>
       </c>
       <c r="X37">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="Y37">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="Z37">
-        <v>961.1188831339823</v>
+        <v>962.1170499451691</v>
       </c>
       <c r="AA37">
-        <v>98.46468781985671</v>
+        <v>98.36567926455567</v>
       </c>
       <c r="AB37">
-        <v>92.28827105214101</v>
+        <v>92.29646227042821</v>
       </c>
     </row>
   </sheetData>

--- a/projects/tRNAseq_third-gen/data/UMI_trimmed/sample_stats.xlsx
+++ b/projects/tRNAseq_third-gen/data/UMI_trimmed/sample_stats.xlsx
@@ -852,37 +852,37 @@
         <v>110</v>
       </c>
       <c r="R2">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="S2">
         <v>38</v>
       </c>
       <c r="T2">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="U2">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="V2">
-        <v>99.68220338983051</v>
+        <v>99.68186638388123</v>
       </c>
       <c r="W2">
-        <v>95.96174282678001</v>
+        <v>95.95744680851064</v>
       </c>
       <c r="X2">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="Y2">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="Z2">
-        <v>930.1747676559607</v>
+        <v>928.1783102791524</v>
       </c>
       <c r="AA2">
-        <v>98.62288135593221</v>
+        <v>98.5153764581124</v>
       </c>
       <c r="AB2">
-        <v>93.2082905435974</v>
+        <v>93.19330029806974</v>
       </c>
     </row>
     <row r="3" spans="1:28">
@@ -938,37 +938,37 @@
         <v>111</v>
       </c>
       <c r="R3">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="S3">
         <v>14</v>
       </c>
       <c r="T3">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="U3">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="V3">
-        <v>98.22485207100591</v>
+        <v>98.66071428571429</v>
       </c>
       <c r="W3">
-        <v>97.89156626506023</v>
+        <v>97.88838612368023</v>
       </c>
       <c r="X3">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="Y3">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="Z3">
-        <v>666.5765359455836</v>
+        <v>662.5816024716478</v>
       </c>
       <c r="AA3">
-        <v>98.66863905325444</v>
+        <v>98.66071428571429</v>
       </c>
       <c r="AB3">
-        <v>93.76267634644468</v>
+        <v>93.87522950829528</v>
       </c>
     </row>
     <row r="4" spans="1:28">
@@ -1110,7 +1110,7 @@
         <v>110</v>
       </c>
       <c r="R5">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="S5">
         <v>63</v>
@@ -1122,25 +1122,25 @@
         <v>608</v>
       </c>
       <c r="V5">
-        <v>99.50900163666121</v>
+        <v>99.34640522875817</v>
       </c>
       <c r="W5">
         <v>89.63815789473685</v>
       </c>
       <c r="X5">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="Y5">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="Z5">
-        <v>595.6619356977171</v>
+        <v>596.6607995627564</v>
       </c>
       <c r="AA5">
-        <v>97.54500818330605</v>
+        <v>97.54901960784314</v>
       </c>
       <c r="AB5">
-        <v>93.00577505444977</v>
+        <v>93.01767443189058</v>
       </c>
     </row>
     <row r="6" spans="1:28">
@@ -1196,22 +1196,22 @@
         <v>111</v>
       </c>
       <c r="R6">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="S6">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="T6">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="U6">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="V6">
-        <v>98.79679144385027</v>
+        <v>98.93190921228305</v>
       </c>
       <c r="W6">
-        <v>73.34235453315291</v>
+        <v>73.27935222672065</v>
       </c>
       <c r="X6">
         <v>739</v>
@@ -1223,7 +1223,7 @@
         <v>738.4801268206211</v>
       </c>
       <c r="AA6">
-        <v>98.79679144385027</v>
+        <v>98.6648865153538</v>
       </c>
       <c r="AB6">
         <v>95.60176020437304</v>
@@ -1368,37 +1368,37 @@
         <v>110</v>
       </c>
       <c r="R8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="S8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T8">
         <v>162</v>
       </c>
       <c r="U8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="V8">
         <v>100</v>
       </c>
       <c r="W8">
-        <v>81</v>
+        <v>81.4070351758794</v>
       </c>
       <c r="X8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="Y8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Z8">
-        <v>195.9635550629464</v>
+        <v>194.9639269271283</v>
       </c>
       <c r="AA8">
-        <v>98</v>
+        <v>97.98994974874373</v>
       </c>
       <c r="AB8">
-        <v>89.81261844502984</v>
+        <v>89.76019449249694</v>
       </c>
     </row>
     <row r="9" spans="1:28">
@@ -1454,37 +1454,37 @@
         <v>111</v>
       </c>
       <c r="R9">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="S9">
         <v>176</v>
       </c>
       <c r="T9">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="U9">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="V9">
-        <v>99.34725848563968</v>
+        <v>99.34469200524246</v>
       </c>
       <c r="W9">
-        <v>76.87253613666229</v>
+        <v>76.78100263852242</v>
       </c>
       <c r="X9">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="Y9">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="Z9">
-        <v>757.4530388847925</v>
+        <v>753.4587987468694</v>
       </c>
       <c r="AA9">
-        <v>98.9556135770235</v>
+        <v>98.82044560943643</v>
       </c>
       <c r="AB9">
-        <v>94.65933373977191</v>
+        <v>94.76297857129067</v>
       </c>
     </row>
     <row r="10" spans="1:28">
@@ -1543,10 +1543,10 @@
         <v>892</v>
       </c>
       <c r="S10">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="T10">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="U10">
         <v>885</v>
@@ -1555,13 +1555,13 @@
         <v>99.2152466367713</v>
       </c>
       <c r="W10">
-        <v>55.59322033898305</v>
+        <v>55.70621468926553</v>
       </c>
       <c r="X10">
         <v>879</v>
       </c>
       <c r="Y10">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="Z10">
         <v>878.26440061623</v>
@@ -1570,7 +1570,7 @@
         <v>98.54260089686099</v>
       </c>
       <c r="AB10">
-        <v>91.43032547335164</v>
+        <v>91.65804733007231</v>
       </c>
     </row>
     <row r="11" spans="1:28">
@@ -1626,37 +1626,37 @@
         <v>110</v>
       </c>
       <c r="R11">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="S11">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="T11">
         <v>692</v>
       </c>
       <c r="U11">
-        <v>1853</v>
+        <v>1854</v>
       </c>
       <c r="V11">
-        <v>98.87940234791888</v>
+        <v>98.98558462359851</v>
       </c>
       <c r="W11">
-        <v>37.34484619535888</v>
+        <v>37.32470334412082</v>
       </c>
       <c r="X11">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="Y11">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="Z11">
-        <v>1844.748682464415</v>
+        <v>1843.752199142647</v>
       </c>
       <c r="AA11">
-        <v>98.61259338313766</v>
+        <v>98.611852642819</v>
       </c>
       <c r="AB11">
-        <v>92.31609791556802</v>
+        <v>92.31175430144231</v>
       </c>
     </row>
     <row r="12" spans="1:28">
@@ -1715,34 +1715,34 @@
         <v>1922</v>
       </c>
       <c r="S12">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="T12">
         <v>632</v>
       </c>
       <c r="U12">
-        <v>1903</v>
+        <v>1904</v>
       </c>
       <c r="V12">
-        <v>99.01144640998959</v>
+        <v>99.06347554630594</v>
       </c>
       <c r="W12">
-        <v>33.21071991592223</v>
+        <v>33.19327731092437</v>
       </c>
       <c r="X12">
-        <v>1887</v>
+        <v>1889</v>
       </c>
       <c r="Y12">
-        <v>1756</v>
+        <v>1758</v>
       </c>
       <c r="Z12">
-        <v>1883.610049548908</v>
+        <v>1885.602862246335</v>
       </c>
       <c r="AA12">
-        <v>98.1789802289282</v>
+        <v>98.28303850156087</v>
       </c>
       <c r="AB12">
-        <v>93.22524056508041</v>
+        <v>93.23278168477533</v>
       </c>
     </row>
     <row r="13" spans="1:28">
@@ -1798,37 +1798,37 @@
         <v>112</v>
       </c>
       <c r="R13">
-        <v>1792</v>
+        <v>1789</v>
       </c>
       <c r="S13">
         <v>1171</v>
       </c>
       <c r="T13">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="U13">
-        <v>1775</v>
+        <v>1772</v>
       </c>
       <c r="V13">
-        <v>99.05133928571429</v>
+        <v>99.04974846282839</v>
       </c>
       <c r="W13">
-        <v>34.02816901408451</v>
+        <v>33.91647855530474</v>
       </c>
       <c r="X13">
-        <v>1755</v>
+        <v>1752</v>
       </c>
       <c r="Y13">
         <v>1605</v>
       </c>
       <c r="Z13">
-        <v>1752.067602111783</v>
+        <v>1749.077616117138</v>
       </c>
       <c r="AA13">
-        <v>97.93526785714286</v>
+        <v>97.93180547792063</v>
       </c>
       <c r="AB13">
-        <v>91.60605435917419</v>
+        <v>91.76265165196141</v>
       </c>
     </row>
     <row r="14" spans="1:28">
@@ -1887,10 +1887,10 @@
         <v>769</v>
       </c>
       <c r="S14">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="T14">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="U14">
         <v>764</v>
@@ -1899,7 +1899,7 @@
         <v>99.34980494148245</v>
       </c>
       <c r="W14">
-        <v>40.96858638743456</v>
+        <v>41.09947643979058</v>
       </c>
       <c r="X14">
         <v>761</v>
@@ -1970,37 +1970,37 @@
         <v>112</v>
       </c>
       <c r="R15">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="S15">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="T15">
         <v>266</v>
       </c>
       <c r="U15">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="V15">
-        <v>98.76543209876543</v>
+        <v>98.76760563380282</v>
       </c>
       <c r="W15">
-        <v>47.5</v>
+        <v>47.41532976827095</v>
       </c>
       <c r="X15">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="Y15">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="Z15">
-        <v>563.6972860593814</v>
+        <v>564.6962108921143</v>
       </c>
       <c r="AA15">
-        <v>99.47089947089947</v>
+        <v>99.47183098591549</v>
       </c>
       <c r="AB15">
-        <v>92.60289394847486</v>
+        <v>92.61616952834832</v>
       </c>
     </row>
     <row r="16" spans="1:28">
@@ -2056,37 +2056,37 @@
         <v>110</v>
       </c>
       <c r="R16">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="S16">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="T16">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="U16">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="V16">
-        <v>98.82659713168188</v>
+        <v>98.68938401048493</v>
       </c>
       <c r="W16">
-        <v>40.10554089709763</v>
+        <v>39.8406374501992</v>
       </c>
       <c r="X16">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="Y16">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="Z16">
-        <v>756.4544817071874</v>
+        <v>752.460233950871</v>
       </c>
       <c r="AA16">
-        <v>98.69621903520208</v>
+        <v>98.68938401048493</v>
       </c>
       <c r="AB16">
-        <v>91.87598418764138</v>
+        <v>91.8320954147746</v>
       </c>
     </row>
     <row r="17" spans="1:28">
@@ -2231,34 +2231,34 @@
         <v>740</v>
       </c>
       <c r="S18">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="T18">
         <v>202</v>
       </c>
       <c r="U18">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="V18">
-        <v>99.45945945945947</v>
+        <v>99.32432432432432</v>
       </c>
       <c r="W18">
-        <v>27.44565217391304</v>
+        <v>27.48299319727891</v>
       </c>
       <c r="X18">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="Y18">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="Z18">
-        <v>725.4982645025011</v>
+        <v>724.4996463759453</v>
       </c>
       <c r="AA18">
-        <v>98.1081081081081</v>
+        <v>97.97297297297297</v>
       </c>
       <c r="AB18">
-        <v>91.93681537713735</v>
+        <v>91.92551070679342</v>
       </c>
     </row>
     <row r="19" spans="1:28">
@@ -2314,37 +2314,37 @@
         <v>110</v>
       </c>
       <c r="R19">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="S19">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="T19">
         <v>189</v>
       </c>
       <c r="U19">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="V19">
-        <v>98.61963190184049</v>
+        <v>98.46390168970814</v>
       </c>
       <c r="W19">
-        <v>29.39346811819596</v>
+        <v>29.48517940717629</v>
       </c>
       <c r="X19">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="Y19">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="Z19">
-        <v>640.6089235453983</v>
+        <v>639.6101435049786</v>
       </c>
       <c r="AA19">
-        <v>98.31288343558282</v>
+        <v>98.31029185867895</v>
       </c>
       <c r="AB19">
-        <v>92.7242781309625</v>
+        <v>92.55638079094848</v>
       </c>
     </row>
     <row r="20" spans="1:28">
@@ -2486,37 +2486,37 @@
         <v>112</v>
       </c>
       <c r="R21">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="S21">
         <v>487</v>
       </c>
       <c r="T21">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="U21">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="V21">
-        <v>99.56958393113344</v>
+        <v>99.5702005730659</v>
       </c>
       <c r="W21">
-        <v>29.82708933717579</v>
+        <v>29.92805755395683</v>
       </c>
       <c r="X21">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="Y21">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="Z21">
-        <v>684.5533594060107</v>
+        <v>685.5520537241246</v>
       </c>
       <c r="AA21">
-        <v>98.27833572453372</v>
+        <v>98.28080229226362</v>
       </c>
       <c r="AB21">
-        <v>93.05337432756551</v>
+        <v>93.06368444732861</v>
       </c>
     </row>
     <row r="22" spans="1:28">
@@ -2572,37 +2572,37 @@
         <v>110</v>
       </c>
       <c r="R22">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="S22">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="T22">
         <v>139</v>
       </c>
       <c r="U22">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="V22">
-        <v>99.67105263157895</v>
+        <v>99.67141292442497</v>
       </c>
       <c r="W22">
-        <v>15.29152915291529</v>
+        <v>15.27472527472528</v>
       </c>
       <c r="X22">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="Y22">
         <v>823</v>
       </c>
       <c r="Z22">
-        <v>896.2339564684662</v>
+        <v>897.2322470378713</v>
       </c>
       <c r="AA22">
-        <v>98.35526315789474</v>
+        <v>98.35706462212487</v>
       </c>
       <c r="AB22">
-        <v>91.82870098372099</v>
+        <v>91.72652930353962</v>
       </c>
     </row>
     <row r="23" spans="1:28">
@@ -2904,37 +2904,37 @@
         <v>112</v>
       </c>
       <c r="R26">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="S26">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="T26">
         <v>33</v>
       </c>
       <c r="U26">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="V26">
-        <v>99.20634920634922</v>
+        <v>99.3368700265252</v>
       </c>
       <c r="W26">
-        <v>4.399999999999999</v>
+        <v>4.405874499332444</v>
       </c>
       <c r="X26">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="Y26">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="Z26">
-        <v>746.4688051778357</v>
+        <v>744.471647016413</v>
       </c>
       <c r="AA26">
-        <v>98.80952380952381</v>
+        <v>98.80636604774536</v>
       </c>
       <c r="AB26">
-        <v>93.50692154291849</v>
+        <v>93.48912114911685</v>
       </c>
     </row>
     <row r="27" spans="1:28">
@@ -3094,19 +3094,19 @@
         <v>6.887052341597796</v>
       </c>
       <c r="X28">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="Y28">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="Z28">
-        <v>723.501026344602</v>
+        <v>724.4996463759453</v>
       </c>
       <c r="AA28">
-        <v>98.36956521739131</v>
+        <v>98.50543478260869</v>
       </c>
       <c r="AB28">
-        <v>92.05239187632964</v>
+        <v>92.2015632914985</v>
       </c>
     </row>
     <row r="29" spans="1:28">
@@ -3162,37 +3162,37 @@
         <v>112</v>
       </c>
       <c r="R29">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="S29">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="T29">
         <v>29</v>
       </c>
       <c r="U29">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="V29">
-        <v>99.19816723940436</v>
+        <v>99.19724770642202</v>
       </c>
       <c r="W29">
-        <v>3.348729792147806</v>
+        <v>3.352601156069364</v>
       </c>
       <c r="X29">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="Y29">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="Z29">
-        <v>856.3007722989423</v>
+        <v>855.3024036588031</v>
       </c>
       <c r="AA29">
-        <v>98.1672394043528</v>
+        <v>98.1651376146789</v>
       </c>
       <c r="AB29">
-        <v>92.0237404299458</v>
+        <v>92.01423924840853</v>
       </c>
     </row>
     <row r="30" spans="1:28">
@@ -3248,37 +3248,37 @@
         <v>110</v>
       </c>
       <c r="R30">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="S30">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="T30">
         <v>1</v>
       </c>
       <c r="U30">
+        <v>757</v>
+      </c>
+      <c r="V30">
+        <v>99.08376963350786</v>
+      </c>
+      <c r="W30">
+        <v>0.1321003963011889</v>
+      </c>
+      <c r="X30">
         <v>755</v>
       </c>
-      <c r="V30">
-        <v>99.08136482939632</v>
-      </c>
-      <c r="W30">
-        <v>0.1324503311258278</v>
-      </c>
-      <c r="X30">
-        <v>753</v>
-      </c>
       <c r="Y30">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="Z30">
-        <v>752.460233950871</v>
+        <v>754.457361638255</v>
       </c>
       <c r="AA30">
-        <v>98.81889763779527</v>
+        <v>98.82198952879581</v>
       </c>
       <c r="AB30">
-        <v>92.62947974543833</v>
+        <v>92.64937099721143</v>
       </c>
     </row>
     <row r="31" spans="1:28">
@@ -3334,37 +3334,37 @@
         <v>111</v>
       </c>
       <c r="R31">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="S31">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="T31">
         <v>6</v>
       </c>
       <c r="U31">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="V31">
-        <v>99.32546374367622</v>
+        <v>99.32659932659934</v>
       </c>
       <c r="W31">
-        <v>1.01867572156197</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="X31">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="Y31">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="Z31">
-        <v>581.6776415412896</v>
+        <v>582.6765320792329</v>
       </c>
       <c r="AA31">
-        <v>98.1450252951096</v>
+        <v>98.14814814814815</v>
       </c>
       <c r="AB31">
-        <v>95.06983946205985</v>
+        <v>94.73523809689637</v>
       </c>
     </row>
     <row r="32" spans="1:28">
@@ -3441,7 +3441,7 @@
         <v>135</v>
       </c>
       <c r="Y32">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Z32">
         <v>134.9827494903584</v>
@@ -3450,7 +3450,7 @@
         <v>99.26470588235294</v>
       </c>
       <c r="AB32">
-        <v>94.82693194743587</v>
+        <v>95.56776735327522</v>
       </c>
     </row>
     <row r="33" spans="1:28">
@@ -3506,37 +3506,37 @@
         <v>110</v>
       </c>
       <c r="R33">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="S33">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="T33">
         <v>2</v>
       </c>
       <c r="U33">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="V33">
-        <v>99.15014164305948</v>
+        <v>99.14772727272727</v>
       </c>
       <c r="W33">
-        <v>0.2857142857142857</v>
+        <v>0.2865329512893983</v>
       </c>
       <c r="X33">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="Y33">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="Z33">
-        <v>691.5441796306986</v>
+        <v>689.5468119478901</v>
       </c>
       <c r="AA33">
-        <v>98.01699716713881</v>
+        <v>98.01136363636364</v>
       </c>
       <c r="AB33">
-        <v>92.40190559354306</v>
+        <v>92.37951491655056</v>
       </c>
     </row>
     <row r="34" spans="1:28">
@@ -3592,37 +3592,37 @@
         <v>111</v>
       </c>
       <c r="R34">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="S34">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="T34">
         <v>9</v>
       </c>
       <c r="U34">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="V34">
-        <v>99.44320712694878</v>
+        <v>99.44258639910814</v>
       </c>
       <c r="W34">
-        <v>1.007838745800672</v>
+        <v>1.008968609865471</v>
       </c>
       <c r="X34">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="Y34">
         <v>832</v>
       </c>
       <c r="Z34">
-        <v>882.2576885657618</v>
+        <v>881.2593694346142</v>
       </c>
       <c r="AA34">
-        <v>98.32962138084632</v>
+        <v>98.32775919732441</v>
       </c>
       <c r="AB34">
-        <v>94.30351367666027</v>
+        <v>94.41034374860408</v>
       </c>
     </row>
     <row r="35" spans="1:28">
@@ -3678,37 +3678,37 @@
         <v>112</v>
       </c>
       <c r="R35">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="S35">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="T35">
         <v>9</v>
       </c>
       <c r="U35">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="V35">
-        <v>99.1869918699187</v>
+        <v>99.30151338766007</v>
       </c>
       <c r="W35">
-        <v>1.053864168618267</v>
+        <v>1.055099648300117</v>
       </c>
       <c r="X35">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="Y35">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="Z35">
-        <v>848.3137698589708</v>
+        <v>846.3170002063853</v>
       </c>
       <c r="AA35">
-        <v>98.60627177700349</v>
+        <v>98.60302677532013</v>
       </c>
       <c r="AB35">
-        <v>92.30075330855128</v>
+        <v>92.2822062902604</v>
       </c>
     </row>
     <row r="36" spans="1:28">
@@ -3764,37 +3764,37 @@
         <v>110</v>
       </c>
       <c r="R36">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="S36">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="T36">
         <v>3</v>
       </c>
       <c r="U36">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="V36">
-        <v>99.67637540453075</v>
+        <v>99.67602591792657</v>
       </c>
       <c r="W36">
-        <v>0.3246753246753247</v>
+        <v>0.3250270855904659</v>
       </c>
       <c r="X36">
         <v>911</v>
       </c>
       <c r="Y36">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="Z36">
         <v>910.209851169202</v>
       </c>
       <c r="AA36">
-        <v>98.27400215749729</v>
+        <v>98.38012958963283</v>
       </c>
       <c r="AB36">
-        <v>92.72586963499101</v>
+        <v>92.61600486054198</v>
       </c>
     </row>
     <row r="37" spans="1:28">
@@ -3850,37 +3850,37 @@
         <v>111</v>
       </c>
       <c r="R37">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="S37">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="T37">
         <v>4</v>
       </c>
       <c r="U37">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="V37">
-        <v>99.38712972420838</v>
+        <v>99.38650306748467</v>
       </c>
       <c r="W37">
-        <v>0.4110996916752312</v>
+        <v>0.411522633744856</v>
       </c>
       <c r="X37">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="Y37">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="Z37">
-        <v>962.1170499451691</v>
+        <v>961.1188831339823</v>
       </c>
       <c r="AA37">
-        <v>98.36567926455567</v>
+        <v>98.3640081799591</v>
       </c>
       <c r="AB37">
-        <v>92.29646227042821</v>
+        <v>92.28827105214101</v>
       </c>
     </row>
   </sheetData>
